--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311764.7974940152</v>
+        <v>308562.4484752657</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
+        <v>491565.803230223</v>
+      </c>
+      <c r="D2" t="n">
         <v>491565.8032302229</v>
-      </c>
-      <c r="D2" t="n">
-        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6065.557895304148</v>
+        <v>5538.212681257806</v>
       </c>
       <c r="C6" t="n">
-        <v>6065.557895304089</v>
+        <v>5538.212681257806</v>
       </c>
       <c r="D6" t="n">
-        <v>6065.557895304206</v>
+        <v>5538.212681257748</v>
       </c>
       <c r="E6" t="n">
-        <v>-62923.88684978105</v>
+        <v>-63236.39432877178</v>
       </c>
       <c r="F6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="G6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="H6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="I6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="J6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.6056712282</v>
       </c>
       <c r="K6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="L6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="M6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="N6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="O6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="P6" t="n">
-        <v>70176.11315021901</v>
+        <v>69863.60567122823</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308562.4484752657</v>
+        <v>322288.8066126839</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5538.212681257806</v>
+        <v>5538.212681257843</v>
       </c>
       <c r="C6" t="n">
-        <v>5538.212681257806</v>
+        <v>5538.212681257843</v>
       </c>
       <c r="D6" t="n">
-        <v>5538.212681257748</v>
+        <v>5538.212681257668</v>
       </c>
       <c r="E6" t="n">
-        <v>-63236.39432877178</v>
+        <v>-63236.39432877184</v>
       </c>
       <c r="F6" t="n">
         <v>69863.60567122823</v>
@@ -26543,7 +26545,7 @@
         <v>69863.60567122823</v>
       </c>
       <c r="J6" t="n">
-        <v>69863.6056712282</v>
+        <v>69863.60567122823</v>
       </c>
       <c r="K6" t="n">
         <v>69863.60567122823</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322288.8066126839</v>
+        <v>238503.4048510589</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5538.212681257843</v>
+        <v>5494.07690257666</v>
       </c>
       <c r="C6" t="n">
-        <v>5538.212681257843</v>
+        <v>5494.07690257666</v>
       </c>
       <c r="D6" t="n">
-        <v>5538.212681257668</v>
+        <v>5494.07690257666</v>
       </c>
       <c r="E6" t="n">
-        <v>-63236.39432877184</v>
+        <v>-78046.41116788574</v>
       </c>
       <c r="F6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="G6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="H6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="I6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="J6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="K6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="L6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="M6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="N6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="O6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
       <c r="P6" t="n">
-        <v>69863.60567122823</v>
+        <v>55053.58883211433</v>
       </c>
     </row>
   </sheetData>
